--- a/natmiOut/OldD7/LR-pairs_lrc2p/Plau-Lrp1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Plau-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H2">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I2">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J2">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N2">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P2">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q2">
-        <v>141.9376847847887</v>
+        <v>267.8048832284539</v>
       </c>
       <c r="R2">
-        <v>141.9376847847887</v>
+        <v>2410.243949056086</v>
       </c>
       <c r="S2">
-        <v>0.002443199321868486</v>
+        <v>0.00383941212753011</v>
       </c>
       <c r="T2">
-        <v>0.002443199321868486</v>
+        <v>0.003839412127530111</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H3">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I3">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J3">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N3">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O3">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P3">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q3">
-        <v>5049.518451043835</v>
+        <v>8015.682247674626</v>
       </c>
       <c r="R3">
-        <v>5049.518451043835</v>
+        <v>72141.14022907164</v>
       </c>
       <c r="S3">
-        <v>0.08691828441515374</v>
+        <v>0.1149176492270919</v>
       </c>
       <c r="T3">
-        <v>0.08691828441515374</v>
+        <v>0.1149176492270919</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H4">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I4">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J4">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N4">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P4">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q4">
-        <v>1837.771129464468</v>
+        <v>3423.385198521622</v>
       </c>
       <c r="R4">
-        <v>1837.771129464468</v>
+        <v>30810.4667866946</v>
       </c>
       <c r="S4">
-        <v>0.03163389049261328</v>
+        <v>0.04907971240090694</v>
       </c>
       <c r="T4">
-        <v>0.03163389049261328</v>
+        <v>0.04907971240090695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.80776008975</v>
+        <v>32.935331</v>
       </c>
       <c r="H5">
-        <v>20.80776008975</v>
+        <v>98.805993</v>
       </c>
       <c r="I5">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="J5">
-        <v>0.1310166381048911</v>
+        <v>0.1836164637112342</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N5">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P5">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q5">
-        <v>582.1854076086646</v>
+        <v>1100.657570899363</v>
       </c>
       <c r="R5">
-        <v>582.1854076086646</v>
+        <v>9905.918138094265</v>
       </c>
       <c r="S5">
-        <v>0.01002126387525558</v>
+        <v>0.01577968995570522</v>
       </c>
       <c r="T5">
-        <v>0.01002126387525558</v>
+        <v>0.01577968995570523</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H6">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I6">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J6">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N6">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P6">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q6">
-        <v>651.3148960885832</v>
+        <v>777.0380730933559</v>
       </c>
       <c r="R6">
-        <v>651.3148960885832</v>
+        <v>6993.342657840203</v>
       </c>
       <c r="S6">
-        <v>0.01121120240096382</v>
+        <v>0.01114008589172089</v>
       </c>
       <c r="T6">
-        <v>0.01121120240096382</v>
+        <v>0.01114008589172089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H7">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I7">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J7">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N7">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O7">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P7">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q7">
-        <v>23170.9189157597</v>
+        <v>23257.56802182142</v>
       </c>
       <c r="R7">
-        <v>23170.9189157597</v>
+        <v>209318.1121963928</v>
       </c>
       <c r="S7">
-        <v>0.3988452641586325</v>
+        <v>0.3334345051642065</v>
       </c>
       <c r="T7">
-        <v>0.3988452641586325</v>
+        <v>0.3334345051642065</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H8">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I8">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J8">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N8">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P8">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q8">
-        <v>8433.050842252607</v>
+        <v>9932.980332723537</v>
       </c>
       <c r="R8">
-        <v>8433.050842252607</v>
+        <v>89396.82299451184</v>
       </c>
       <c r="S8">
-        <v>0.1451596461525636</v>
+        <v>0.1424051895254045</v>
       </c>
       <c r="T8">
-        <v>0.1451596461525636</v>
+        <v>0.1424051895254045</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>95.4813664971382</v>
+        <v>95.562134</v>
       </c>
       <c r="H9">
-        <v>95.4813664971382</v>
+        <v>286.686402</v>
       </c>
       <c r="I9">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765668</v>
       </c>
       <c r="J9">
-        <v>0.601201070473623</v>
+        <v>0.5327646808765667</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N9">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P9">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q9">
-        <v>2671.496500988183</v>
+        <v>3193.567001904411</v>
       </c>
       <c r="R9">
-        <v>2671.496500988183</v>
+        <v>28742.1030171397</v>
       </c>
       <c r="S9">
-        <v>0.04598495776146302</v>
+        <v>0.04578490029523483</v>
       </c>
       <c r="T9">
-        <v>0.04598495776146302</v>
+        <v>0.04578490029523482</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H10">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I10">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J10">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N10">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P10">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q10">
-        <v>214.9334431068513</v>
+        <v>301.4180249850853</v>
       </c>
       <c r="R10">
-        <v>214.9334431068513</v>
+        <v>2712.762224865768</v>
       </c>
       <c r="S10">
-        <v>0.003699688657326858</v>
+        <v>0.004321310375795836</v>
       </c>
       <c r="T10">
-        <v>0.003699688657326858</v>
+        <v>0.004321310375795836</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H11">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I11">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J11">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N11">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O11">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P11">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q11">
-        <v>7646.38642908692</v>
+        <v>9021.758986900319</v>
       </c>
       <c r="R11">
-        <v>7646.38642908692</v>
+        <v>81195.83088210288</v>
       </c>
       <c r="S11">
-        <v>0.1316186477651469</v>
+        <v>0.1293413714058765</v>
       </c>
       <c r="T11">
-        <v>0.1316186477651469</v>
+        <v>0.1293413714058765</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H12">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I12">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J12">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N12">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P12">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q12">
-        <v>2782.900658814299</v>
+        <v>3853.066429790651</v>
       </c>
       <c r="R12">
-        <v>2782.900658814299</v>
+        <v>34677.59786811586</v>
       </c>
       <c r="S12">
-        <v>0.04790257790065855</v>
+        <v>0.05523988136578376</v>
       </c>
       <c r="T12">
-        <v>0.04790257790065855</v>
+        <v>0.05523988136578376</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>31.5087816615604</v>
+        <v>37.06916133333333</v>
       </c>
       <c r="H13">
-        <v>31.5087816615604</v>
+        <v>111.207484</v>
       </c>
       <c r="I13">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="J13">
-        <v>0.1983959170171443</v>
+        <v>0.2066628180165514</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N13">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P13">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q13">
-        <v>881.5919068542256</v>
+        <v>1238.805010595559</v>
       </c>
       <c r="R13">
-        <v>881.5919068542256</v>
+        <v>11149.24509536003</v>
       </c>
       <c r="S13">
-        <v>0.01517500269401196</v>
+        <v>0.01776025486909533</v>
       </c>
       <c r="T13">
-        <v>0.01517500269401196</v>
+        <v>0.01776025486909533</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H14">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I14">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J14">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.8213822233902</v>
+        <v>8.131233999999999</v>
       </c>
       <c r="N14">
-        <v>6.8213822233902</v>
+        <v>24.393702</v>
       </c>
       <c r="O14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015822</v>
       </c>
       <c r="P14">
-        <v>0.01864800804850813</v>
+        <v>0.02090995573015823</v>
       </c>
       <c r="Q14">
-        <v>75.1701576304995</v>
+        <v>112.2404940816047</v>
       </c>
       <c r="R14">
-        <v>75.1701576304995</v>
+        <v>1010.164446734442</v>
       </c>
       <c r="S14">
-        <v>0.001293917668348961</v>
+        <v>0.001609147335111393</v>
       </c>
       <c r="T14">
-        <v>0.001293917668348961</v>
+        <v>0.001609147335111393</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H15">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I15">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J15">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.674772741697</v>
+        <v>243.3763986666667</v>
       </c>
       <c r="N15">
-        <v>242.674772741697</v>
+        <v>730.1291960000001</v>
       </c>
       <c r="O15">
-        <v>0.6634140951286469</v>
+        <v>0.625857000534647</v>
       </c>
       <c r="P15">
-        <v>0.6634140951286469</v>
+        <v>0.6258570005346471</v>
       </c>
       <c r="Q15">
-        <v>2674.223540412144</v>
+        <v>3359.476216543302</v>
       </c>
       <c r="R15">
-        <v>2674.223540412144</v>
+        <v>30235.28594888972</v>
       </c>
       <c r="S15">
-        <v>0.04603189878971379</v>
+        <v>0.04816347473747216</v>
       </c>
       <c r="T15">
-        <v>0.04603189878971379</v>
+        <v>0.04816347473747216</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H16">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I16">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J16">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>88.32143015575051</v>
+        <v>103.9426383333333</v>
       </c>
       <c r="N16">
-        <v>88.32143015575051</v>
+        <v>311.827915</v>
       </c>
       <c r="O16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403034</v>
       </c>
       <c r="P16">
-        <v>0.2414494139842558</v>
+        <v>0.2672947262403035</v>
       </c>
       <c r="Q16">
-        <v>973.2830692573759</v>
+        <v>1434.785062473774</v>
       </c>
       <c r="R16">
-        <v>973.2830692573759</v>
+        <v>12913.06556226397</v>
       </c>
       <c r="S16">
-        <v>0.01675329943842045</v>
+        <v>0.02056994294820819</v>
       </c>
       <c r="T16">
-        <v>0.01675329943842045</v>
+        <v>0.02056994294820819</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.0197838456764</v>
+        <v>13.80362366666667</v>
       </c>
       <c r="H17">
-        <v>11.0197838456764</v>
+        <v>41.410871</v>
       </c>
       <c r="I17">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564764</v>
       </c>
       <c r="J17">
-        <v>0.0693863744043416</v>
+        <v>0.07695603739564763</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.979244526923</v>
+        <v>33.41874933333333</v>
       </c>
       <c r="N17">
-        <v>27.979244526923</v>
+        <v>100.256248</v>
       </c>
       <c r="O17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489127</v>
       </c>
       <c r="P17">
-        <v>0.07648848283858896</v>
+        <v>0.08593831749489128</v>
       </c>
       <c r="Q17">
-        <v>308.3252268520159</v>
+        <v>461.2998392080008</v>
       </c>
       <c r="R17">
-        <v>308.3252268520159</v>
+        <v>4151.698552872008</v>
       </c>
       <c r="S17">
-        <v>0.005307258507858391</v>
+        <v>0.006613472374855892</v>
       </c>
       <c r="T17">
-        <v>0.005307258507858391</v>
+        <v>0.006613472374855892</v>
       </c>
     </row>
   </sheetData>
